--- a/assets/vragenlijst.xlsx
+++ b/assets/vragenlijst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atnvo\OneDrive\Documenten\hsleiden\IARCH\week 7\sorteerhoed\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9273EF32-D4B6-48F4-B3BE-B5F66BF5A550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EB30F8-4DC7-4463-AC5C-4484D7442A1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
   <si>
     <t>vraag</t>
   </si>
@@ -81,29 +81,221 @@
     <t>FICT</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>tes</t>
-  </si>
-  <si>
-    <t>tesss</t>
-  </si>
-  <si>
-    <t>tes5346</t>
+    <t>Analyseren</t>
+  </si>
+  <si>
+    <t>Soort</t>
+  </si>
+  <si>
+    <t>Adviseren</t>
+  </si>
+  <si>
+    <t>Ontwerpen</t>
+  </si>
+  <si>
+    <t>Realiseren</t>
+  </si>
+  <si>
+    <t>Manage &amp; Control</t>
+  </si>
+  <si>
+    <t>Ik ben nieuwsgiering en zoek graag dingen uit</t>
+  </si>
+  <si>
+    <t>Ik wil de logica achter grote systemen ontwerpen en programmeren</t>
+  </si>
+  <si>
+    <t>Ik vind het leuk om uit grote hoeveelheid informatie tot een antwoord te komen</t>
+  </si>
+  <si>
+    <t>Wat voor soort speler ben jij tijdens Zwerkbal?</t>
+  </si>
+  <si>
+    <t>Zoeker: Wil de Snitch in handen krijgen</t>
+  </si>
+  <si>
+    <t>Drijver: De zware ballen tegen tegenstanders werpen, en wegdrijven van je teamleden</t>
+  </si>
+  <si>
+    <t>Jager: Probeer doelpunten te scoren</t>
+  </si>
+  <si>
+    <t>Verdediging: Verdedig de ring</t>
+  </si>
+  <si>
+    <t>Wat is je favoriete spreuk?</t>
+  </si>
+  <si>
+    <t>Aparecium: Maakt onzichtbare voorwerpen en personen zichtbaar</t>
+  </si>
+  <si>
+    <t>Draconifors: Maakt van drakenbeelden echte draken</t>
+  </si>
+  <si>
+    <t>Glisseo: Trappen veranderen in glijbanen</t>
+  </si>
+  <si>
+    <t>Worthiosis: Het kunnen zien van de waarde van een voorwerp in Galjoenen</t>
+  </si>
+  <si>
+    <t>Wat doe je als iemand je een geheim vertelt?</t>
+  </si>
+  <si>
+    <t>Ik houd het geheim voor mezelf</t>
+  </si>
+  <si>
+    <t>Ik vertel het alleen aan mijn beste makkers</t>
+  </si>
+  <si>
+    <t>Ik vertel het alleen door als ik boos ben op diegene</t>
+  </si>
+  <si>
+    <t>Ik doe er niks mee. ik ga wel naar de Chamber of Secrets om een slang te verslaan</t>
+  </si>
+  <si>
+    <t>Je hebt per ongeluk je rechter been weggetoverd, wat doe je?</t>
+  </si>
+  <si>
+    <t>Ik knutsel mijn eigen prothese, zolang het maar werkt</t>
+  </si>
+  <si>
+    <t>Ik koop gewoon een prothese. Lekker snel opgelost!</t>
+  </si>
+  <si>
+    <t>Ik ga naar iemand anders en vraag of hij/zij de oplossing weet</t>
+  </si>
+  <si>
+    <t>Bedenken wat er mis is gegaan en hoe ik het de volgende keer kan voorkomen. Daarna regel ik een prothese</t>
+  </si>
+  <si>
+    <t>Je staat op Perron 9 3/4 wachtend op de trein. Voor welke vakken heb jij boeken meegenomen?</t>
+  </si>
+  <si>
+    <t>Trein 1: Koken, Ontwikkelings theorie en Wiskunde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trein 2: Schrijven, ASK(Algemene Spreuken Kennis) en SKG (Spreuken Kennis voor Gevorderden) </t>
+  </si>
+  <si>
+    <t>Trein 3: Onderzoek Ontwerp, ASK(Algemene Spreuken Kennis) en Wiskunde</t>
+  </si>
+  <si>
+    <t>Trein 4: AKS(Algemene Spreuken Kennis), SKG(Spreuken Kennis voor Gevorderden) en Communicatie</t>
+  </si>
+  <si>
+    <t>Je hebt je diploma gehaald, voor welk beroep kies je?</t>
+  </si>
+  <si>
+    <t>Professort: Kennis doorgeven aan leerlingen. Toepassen van spreuken staat centraal.</t>
+  </si>
+  <si>
+    <t>Beveiliger: Het beveiligen van Zweinstein doormiddel van spreuken en onderzoek naar zwakke punten van het gebouw.</t>
+  </si>
+  <si>
+    <t>Chef kok: Ontwerpt magisch gerechten en drankjes. Altijd uit voor het verbeteren van zijn/haar recepten.</t>
+  </si>
+  <si>
+    <t>Schrijver:  Bezit een bibliotheek vol met boeken met spreuken. Combineert spreuken en schrijft ze op in boeken.</t>
+  </si>
+  <si>
+    <t>Welk personage past het beste bij jou?</t>
+  </si>
+  <si>
+    <t>Percy Wemel (Broer van Ron)</t>
+  </si>
+  <si>
+    <t>Draco Malfidus</t>
+  </si>
+  <si>
+    <t>Marcel Lubbermans</t>
+  </si>
+  <si>
+    <t>Ron Wemel</t>
+  </si>
+  <si>
+    <t>Voor de vuurbeker moet je iemand die onder water vast zit bevrijden. Hoe doe je dat?</t>
+  </si>
+  <si>
+    <t>Ik gebruik illegale kieuwen en een onzichtbaarheidsmantel zodat niemand dit merkt. Zo kan ik naar de gevangene toe</t>
+  </si>
+  <si>
+    <t>Ik transformeer in een zeedier doormiddel van een spreuk die ik heb gekocht van een tovenaar en zwem naar de gevangene toe</t>
+  </si>
+  <si>
+    <t>Ik gebruik de luchtbellen onder water om te ademen doormiddel van een spreuk.</t>
+  </si>
+  <si>
+    <t>Ik spring direct het water in, en improviseer wel iets als er wat gebeurt.</t>
+  </si>
+  <si>
+    <t>Wie is je favoriete professor?</t>
+  </si>
+  <si>
+    <t>Prof. Lockhart: Bekende tovenaar die veel boeken schrijft</t>
+  </si>
+  <si>
+    <t>Prof. Sneep: Dooddoener in de naam van Voldemort</t>
+  </si>
+  <si>
+    <t>Prof. Mad-Eye Moody: Ziet alles en is erg zelfstandig</t>
+  </si>
+  <si>
+    <t>Prof. Bingel: Vindt het belangrijk dat lessen leuk zijn, daardoor zijn ze wel chaotisch</t>
+  </si>
+  <si>
+    <t>Welk magisch voorwerp zou je willen hebben?</t>
+  </si>
+  <si>
+    <t>Een zelf typende typmachine</t>
+  </si>
+  <si>
+    <t>Een zelf naaiende naaimachine</t>
+  </si>
+  <si>
+    <t>Zelf corrigerende inkt</t>
+  </si>
+  <si>
+    <t>Een vergrootglas die cijfers of woordreeksen kan opzoeken</t>
+  </si>
+  <si>
+    <t>Dit is de eerste vraag</t>
+  </si>
+  <si>
+    <t>Ik wil uitzoeken hoe ik mens en technologie kan verbinden </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -122,12 +314,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -408,131 +635,441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="11" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
+    </row>
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/vragenlijst.xlsx
+++ b/assets/vragenlijst.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atnvo\OneDrive\Documenten\hsleiden\IARCH\week 7\sorteerhoed\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atnvo\OneDrive\Documenten\GitHub\sorteerhoed\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EB30F8-4DC7-4463-AC5C-4484D7442A1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5BED45-2142-4B5B-AFDD-B9D0926B1788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -637,21 +637,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -684,7 +684,7 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>77</v>
       </c>
@@ -716,7 +716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -748,7 +748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -780,7 +780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -812,7 +812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
@@ -844,7 +844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
@@ -876,7 +876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -908,7 +908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>52</v>
       </c>
@@ -940,7 +940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
@@ -972,7 +972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>72</v>
       </c>

--- a/assets/vragenlijst.xlsx
+++ b/assets/vragenlijst.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atnvo\OneDrive\Documenten\GitHub\sorteerhoed\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atnvo\OneDrive\Documenten\hsleiden\IARCH\week 7\sorteerhoed\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5BED45-2142-4B5B-AFDD-B9D0926B1788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BCEE87-0A76-4BB7-A51F-A2E8D88F0E80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
   <si>
     <t>vraag</t>
   </si>
@@ -42,33 +42,6 @@
     <t>ant4</t>
   </si>
   <si>
-    <t>spec1</t>
-  </si>
-  <si>
-    <t>spec2</t>
-  </si>
-  <si>
-    <t>spec3</t>
-  </si>
-  <si>
-    <t>spec4</t>
-  </si>
-  <si>
-    <t>Je bezem breekt doormidden, je hebt 2000 Galjoenen, wat doe je?</t>
-  </si>
-  <si>
-    <t>Ik koop een nieuwe bezem in de aanbieding voor 1450 Galjoenen. (Duur maar wel het snelst voor een perfecte reparatie)</t>
-  </si>
-  <si>
-    <t>Ik vraag aan iemand of die mij kan helpen om de bezem te repareren. (Misschien kosteloos en leerzaam/gezellig)</t>
-  </si>
-  <si>
-    <t>Ik koop ductape voor 69 Galjoenen en plak hem slordig aan elkaar. (Goedkoopst, weinig moeite maar wel slordig)</t>
-  </si>
-  <si>
-    <t>Ik onderzoek zelf wat er mis is. En repareer hem naar zijn originele staat voor 420 Galjoenen. (Kost geld, tijd en moeite maar het resultaat is goed)</t>
-  </si>
-  <si>
     <t>BDAM</t>
   </si>
   <si>
@@ -81,24 +54,6 @@
     <t>FICT</t>
   </si>
   <si>
-    <t>Analyseren</t>
-  </si>
-  <si>
-    <t>Soort</t>
-  </si>
-  <si>
-    <t>Adviseren</t>
-  </si>
-  <si>
-    <t>Ontwerpen</t>
-  </si>
-  <si>
-    <t>Realiseren</t>
-  </si>
-  <si>
-    <t>Manage &amp; Control</t>
-  </si>
-  <si>
     <t>Ik ben nieuwsgiering en zoek graag dingen uit</t>
   </si>
   <si>
@@ -108,54 +63,6 @@
     <t>Ik vind het leuk om uit grote hoeveelheid informatie tot een antwoord te komen</t>
   </si>
   <si>
-    <t>Wat voor soort speler ben jij tijdens Zwerkbal?</t>
-  </si>
-  <si>
-    <t>Zoeker: Wil de Snitch in handen krijgen</t>
-  </si>
-  <si>
-    <t>Drijver: De zware ballen tegen tegenstanders werpen, en wegdrijven van je teamleden</t>
-  </si>
-  <si>
-    <t>Jager: Probeer doelpunten te scoren</t>
-  </si>
-  <si>
-    <t>Verdediging: Verdedig de ring</t>
-  </si>
-  <si>
-    <t>Wat is je favoriete spreuk?</t>
-  </si>
-  <si>
-    <t>Aparecium: Maakt onzichtbare voorwerpen en personen zichtbaar</t>
-  </si>
-  <si>
-    <t>Draconifors: Maakt van drakenbeelden echte draken</t>
-  </si>
-  <si>
-    <t>Glisseo: Trappen veranderen in glijbanen</t>
-  </si>
-  <si>
-    <t>Worthiosis: Het kunnen zien van de waarde van een voorwerp in Galjoenen</t>
-  </si>
-  <si>
-    <t>Wat doe je als iemand je een geheim vertelt?</t>
-  </si>
-  <si>
-    <t>Ik houd het geheim voor mezelf</t>
-  </si>
-  <si>
-    <t>Ik vertel het alleen aan mijn beste makkers</t>
-  </si>
-  <si>
-    <t>Ik vertel het alleen door als ik boos ben op diegene</t>
-  </si>
-  <si>
-    <t>Ik doe er niks mee. ik ga wel naar de Chamber of Secrets om een slang te verslaan</t>
-  </si>
-  <si>
-    <t>Je hebt per ongeluk je rechter been weggetoverd, wat doe je?</t>
-  </si>
-  <si>
     <t>Ik knutsel mijn eigen prothese, zolang het maar werkt</t>
   </si>
   <si>
@@ -168,9 +75,6 @@
     <t>Bedenken wat er mis is gegaan en hoe ik het de volgende keer kan voorkomen. Daarna regel ik een prothese</t>
   </si>
   <si>
-    <t>Je staat op Perron 9 3/4 wachtend op de trein. Voor welke vakken heb jij boeken meegenomen?</t>
-  </si>
-  <si>
     <t>Trein 1: Koken, Ontwikkelings theorie en Wiskunde</t>
   </si>
   <si>
@@ -183,9 +87,6 @@
     <t>Trein 4: AKS(Algemene Spreuken Kennis), SKG(Spreuken Kennis voor Gevorderden) en Communicatie</t>
   </si>
   <si>
-    <t>Je hebt je diploma gehaald, voor welk beroep kies je?</t>
-  </si>
-  <si>
     <t>Professort: Kennis doorgeven aan leerlingen. Toepassen van spreuken staat centraal.</t>
   </si>
   <si>
@@ -258,17 +159,146 @@
     <t>Een vergrootglas die cijfers of woordreeksen kan opzoeken</t>
   </si>
   <si>
-    <t>Dit is de eerste vraag</t>
-  </si>
-  <si>
     <t>Ik wil uitzoeken hoe ik mens en technologie kan verbinden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geef bij elke optie een letter bij waar je het beste bij past </t>
+  </si>
+  <si>
+    <t>Ik houd van puzzelen</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ik vind AI interessant </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik hou van onderzoeken </t>
+  </si>
+  <si>
+    <t>Ik ben creatief</t>
+  </si>
+  <si>
+    <t>Ik ben een teamleider</t>
+  </si>
+  <si>
+    <t>Ik ben iemand die een plan maakt voordat ik iets uitvoer</t>
+  </si>
+  <si>
+    <t>Ik vind het leuk om informatie te analyseren</t>
+  </si>
+  <si>
+    <t>Ik wil dingen automatiseren</t>
+  </si>
+  <si>
+    <t>Ik ben iemand die een taken verdeeld op basis van persoon</t>
+  </si>
+  <si>
+    <t>Ik houd van plannen, organiseren en creëren van structuur</t>
+  </si>
+  <si>
+    <t>Ik denk over wat iemand aantrekt tot een product/website</t>
+  </si>
+  <si>
+    <t>Ik vind een schattenjacht leuk</t>
+  </si>
+  <si>
+    <t>Geef bij elke optie een letter bij waar je het beste bij past </t>
+  </si>
+  <si>
+    <t>3,1,2,2</t>
+  </si>
+  <si>
+    <t>1,3,2,1</t>
+  </si>
+  <si>
+    <t>2,1,3,2</t>
+  </si>
+  <si>
+    <t>1,2,2,3</t>
+  </si>
+  <si>
+    <t>1,2,3,2</t>
+  </si>
+  <si>
+    <t>2,2,2,3</t>
+  </si>
+  <si>
+    <t>1,3,2,3</t>
+  </si>
+  <si>
+    <t>3,2,3,2</t>
+  </si>
+  <si>
+    <t>3,1,1,1</t>
+  </si>
+  <si>
+    <t>2,3,2,1</t>
+  </si>
+  <si>
+    <t>1,1,1,3</t>
+  </si>
+  <si>
+    <t>2,2,3,2</t>
+  </si>
+  <si>
+    <t>spec_ant1</t>
+  </si>
+  <si>
+    <t>spec_ant2</t>
+  </si>
+  <si>
+    <t>spec_ant3</t>
+  </si>
+  <si>
+    <t>spec_ant4</t>
+  </si>
+  <si>
+    <t>Geef bij elke vraag de letter van de optie waar jij het beste in bent. </t>
+  </si>
+  <si>
+    <t>Een correct algoritme maken    </t>
+  </si>
+  <si>
+    <t>De code van iemand anders snel begrijpen      </t>
+  </si>
+  <si>
+    <t>Iemand adviseren over zijn/haar vriendschappen </t>
+  </si>
+  <si>
+    <t>Luisteren naar de medemens </t>
+  </si>
+  <si>
+    <t>3,1,3,1</t>
+  </si>
+  <si>
+    <t>3,1,2,1</t>
+  </si>
+  <si>
+    <t>1,3,1,2</t>
+  </si>
+  <si>
+    <t>2,3,2,3</t>
+  </si>
+  <si>
+    <t>3,2,2,2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +327,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -306,7 +344,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -340,11 +378,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -355,6 +402,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -637,21 +688,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:J13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="51.85546875" customWidth="1"/>
+    <col min="2" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -668,405 +722,378 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="I8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="F10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="F11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="F12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/vragenlijst.xlsx
+++ b/assets/vragenlijst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atnvo\OneDrive\Documenten\hsleiden\IARCH\week 7\sorteerhoed\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BCEE87-0A76-4BB7-A51F-A2E8D88F0E80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77614D1C-8494-4867-A75C-6D1E5D4B599F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,7 +689,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/vragenlijst.xlsx
+++ b/assets/vragenlijst.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atnvo\OneDrive\Documenten\hsleiden\IARCH\week 7\sorteerhoed\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nibbe\Documents\GitHub\sorteerhoed\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77614D1C-8494-4867-A75C-6D1E5D4B599F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17073D7F-F836-40BC-959B-3BB0332B808E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
   <si>
     <t>vraag</t>
   </si>
@@ -40,18 +40,6 @@
   </si>
   <si>
     <t>ant4</t>
-  </si>
-  <si>
-    <t>BDAM</t>
-  </si>
-  <si>
-    <t>IAT</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>FICT</t>
   </si>
   <si>
     <t>Ik ben nieuwsgiering en zoek graag dingen uit</t>
@@ -688,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,16 +710,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="6"/>
@@ -739,359 +727,359 @@
     </row>
     <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="J13" s="2"/>
     </row>

--- a/assets/vragenlijst.xlsx
+++ b/assets/vragenlijst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Petra\Documents\J Informatica\2020-2021\IPOHBO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nibbe\Documents\GitHub\sorteerhoed\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D08940CC-F86A-4C61-8BE2-9B6742C09AC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF81B53-7D76-4087-A6E9-D89EDE95BECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1215" windowWidth="15060" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -78,42 +78,12 @@
     <t>Ik vind een schattenjacht leuk</t>
   </si>
   <si>
-    <t>3,1,2,2</t>
-  </si>
-  <si>
-    <t>1,3,2,1</t>
-  </si>
-  <si>
-    <t>2,1,3,2</t>
-  </si>
-  <si>
-    <t>1,2,2,3</t>
-  </si>
-  <si>
-    <t>1,2,3,2</t>
-  </si>
-  <si>
-    <t>2,2,2,3</t>
-  </si>
-  <si>
-    <t>1,3,2,3</t>
-  </si>
-  <si>
-    <t>3,2,3,2</t>
-  </si>
-  <si>
     <t>3,1,1,1</t>
   </si>
   <si>
-    <t>2,3,2,1</t>
-  </si>
-  <si>
     <t>1,1,1,3</t>
   </si>
   <si>
-    <t>2,2,3,2</t>
-  </si>
-  <si>
     <t>spec_ant1</t>
   </si>
   <si>
@@ -141,18 +111,6 @@
     <t>3,1,3,1</t>
   </si>
   <si>
-    <t>3,1,2,1</t>
-  </si>
-  <si>
-    <t>1,3,1,2</t>
-  </si>
-  <si>
-    <t>2,3,2,3</t>
-  </si>
-  <si>
-    <t>3,2,2,2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Geef aan wat het beste bij jou past </t>
   </si>
   <si>
@@ -174,12 +132,6 @@
     <t>Slim met Excel werken</t>
   </si>
   <si>
-    <t>1,2,1,1</t>
-  </si>
-  <si>
-    <t>3,2,1,1</t>
-  </si>
-  <si>
     <t>Een poster maken</t>
   </si>
   <si>
@@ -192,12 +144,6 @@
     <t>Het verdelen van taken in een team</t>
   </si>
   <si>
-    <t>2,3,3,2</t>
-  </si>
-  <si>
-    <t>1,2,1,3</t>
-  </si>
-  <si>
     <t>Iemand helpen met het ordenen van mappen</t>
   </si>
   <si>
@@ -222,15 +168,6 @@
     <t>Begrijpen van mensen</t>
   </si>
   <si>
-    <t>2,2,2,2</t>
-  </si>
-  <si>
-    <t>1,1,2,3</t>
-  </si>
-  <si>
-    <t>1,3,1,1</t>
-  </si>
-  <si>
     <t>Ik houd van analyseren</t>
   </si>
   <si>
@@ -244,9 +181,6 @@
   </si>
   <si>
     <t>Ik hou van gerechtigheid</t>
-  </si>
-  <si>
-    <t>2,1,3,1</t>
   </si>
   <si>
     <t>Ik houd van vrijheid</t>
@@ -309,9 +243,6 @@
     <t>Je houdt van uitdagingen en bent nieuwsgierig naar nieuwe technologieen</t>
   </si>
   <si>
-    <t>2,2,1,3</t>
-  </si>
-  <si>
     <t>1,1,3,1</t>
   </si>
   <si>
@@ -358,6 +289,75 @@
   </si>
   <si>
     <t>1. Organisatie processen 2. Software 3. Infrastructuur 4. Gebruikers interactie 5. Hardware interfacing</t>
+  </si>
+  <si>
+    <t>3,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,3</t>
+  </si>
+  <si>
+    <t>3,0,3,0</t>
+  </si>
+  <si>
+    <t>0,3,0,0</t>
+  </si>
+  <si>
+    <t>0,0,3,0</t>
+  </si>
+  <si>
+    <t>3,0,1,1</t>
+  </si>
+  <si>
+    <t>0,3,1,0</t>
+  </si>
+  <si>
+    <t>1,0,3,1</t>
+  </si>
+  <si>
+    <t>0,1,1,3</t>
+  </si>
+  <si>
+    <t>0,1,3,1</t>
+  </si>
+  <si>
+    <t>0,3,1,3</t>
+  </si>
+  <si>
+    <t>1,3,1,0</t>
+  </si>
+  <si>
+    <t>3,0,1,0</t>
+  </si>
+  <si>
+    <t>0,3,0,1</t>
+  </si>
+  <si>
+    <t>1,0,3,0</t>
+  </si>
+  <si>
+    <t>1,3,1,3</t>
+  </si>
+  <si>
+    <t>0,1,0,0</t>
+  </si>
+  <si>
+    <t>3,1,0,0</t>
+  </si>
+  <si>
+    <t>1,3,3,1</t>
+  </si>
+  <si>
+    <t>0,1,0,3</t>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+  </si>
+  <si>
+    <t>0,0,1,3</t>
+  </si>
+  <si>
+    <t>1,1,0,3</t>
   </si>
 </sst>
 </file>
@@ -759,16 +759,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.85546875" style="5" customWidth="1"/>
-    <col min="2" max="3" width="18.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22" style="5" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" style="5" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="5" customWidth="1"/>
     <col min="8" max="8" width="18.140625" style="5" customWidth="1"/>
@@ -794,16 +795,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="2"/>
@@ -811,7 +812,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>8</v>
@@ -826,51 +827,51 @@
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
@@ -885,402 +886,402 @@
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="G14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="I14" s="5" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="I15" s="5" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/assets/vragenlijst.xlsx
+++ b/assets/vragenlijst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nibbe\Documents\GitHub\sorteerhoed\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF81B53-7D76-4087-A6E9-D89EDE95BECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48699B4-2DCD-4358-A989-A02EC6DE0819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
